--- a/WebForm_Testing.xlsx
+++ b/WebForm_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,11 @@
     <sheet name="Комбинации данных" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1372">
   <si>
     <t>ID</t>
   </si>
@@ -3688,32 +3687,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Test Testovich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"  в голубой рамке</t>
-    </r>
-  </si>
-  <si>
     <t>Под кнопкой "Submit" отображается сообщение "Error! Field All is Required" в красной рамке</t>
   </si>
   <si>
@@ -6182,6 +6155,81 @@
   </si>
   <si>
     <t>Password: Qwerty@</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Name:Test
+Sunrame:Nurmalov
+Email: testingmail.ru        
+Password:Qwerty@
+2. Нажать на клавишу "Enter"</t>
+  </si>
+  <si>
+    <t>1. Зайти в DevTools
+2. Перейти на вкладку Network
+3.Обновить страницу
+4. посмотреть General Headers</t>
+  </si>
+  <si>
+    <r>
+      <t>Поле Email не является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Поле Password не является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test  Nurmalov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Кнопка "Submit"  смещена от центра вправо</t>
+  </si>
+  <si>
+    <t>Кнопка "Submit"  расположена по середине</t>
+  </si>
+  <si>
+    <t>Текст на кнопке"Submit" не выровнен по середине</t>
   </si>
 </sst>
 </file>
@@ -6771,6 +6819,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6782,15 +6839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7541,6 +7589,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>775606</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2518463</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>985046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13729606" y="111061499"/>
+          <a:ext cx="1742857" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7846,7 +7932,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -11277,8 +11363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11351,13 +11437,13 @@
       <c r="C4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="86" t="s">
         <v>430</v>
       </c>
       <c r="G4" s="33"/>
@@ -11384,11 +11470,11 @@
       <c r="C5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
         <v>434</v>
@@ -11409,11 +11495,11 @@
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33" t="s">
         <v>439</v>
@@ -11438,11 +11524,11 @@
       <c r="C7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33" t="s">
         <v>441</v>
@@ -11467,11 +11553,11 @@
       <c r="C8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33" t="s">
         <v>634</v>
@@ -11496,11 +11582,11 @@
       <c r="C9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33" t="s">
         <v>653</v>
@@ -11525,11 +11611,11 @@
       <c r="C10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="42" t="s">
-        <v>819</v>
-      </c>
-      <c r="F10" s="84"/>
+        <v>818</v>
+      </c>
+      <c r="F10" s="87"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
         <v>654</v>
@@ -11554,17 +11640,17 @@
       <c r="C11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="42" t="s">
-        <v>820</v>
-      </c>
-      <c r="F11" s="84"/>
+        <v>819</v>
+      </c>
+      <c r="F11" s="87"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
+        <v>820</v>
+      </c>
+      <c r="I11" s="54" t="s">
         <v>821</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>822</v>
       </c>
       <c r="J11" s="54" t="s">
         <v>85</v>
@@ -11583,20 +11669,20 @@
       <c r="C12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="42" t="s">
-        <v>823</v>
-      </c>
-      <c r="F12" s="84"/>
+        <v>822</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="33"/>
       <c r="H12" s="42" t="s">
         <v>443</v>
       </c>
       <c r="I12" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>835</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>836</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>278</v>
@@ -11612,11 +11698,11 @@
       <c r="C13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="87"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="42" t="s">
-        <v>824</v>
-      </c>
-      <c r="F13" s="84"/>
+        <v>823</v>
+      </c>
+      <c r="F13" s="87"/>
       <c r="G13" s="33"/>
       <c r="H13" s="42" t="s">
         <v>444</v>
@@ -11641,11 +11727,11 @@
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="42" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F14" s="84"/>
+        <v>1235</v>
+      </c>
+      <c r="F14" s="87"/>
       <c r="G14" s="33"/>
       <c r="H14" s="42" t="s">
         <v>446</v>
@@ -11670,11 +11756,11 @@
       <c r="C15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="42" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F15" s="84"/>
+        <v>1234</v>
+      </c>
+      <c r="F15" s="87"/>
       <c r="G15" s="33"/>
       <c r="H15" s="42" t="s">
         <v>448</v>
@@ -11699,11 +11785,11 @@
       <c r="C16" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="33"/>
       <c r="H16" s="42" t="s">
         <v>454</v>
@@ -11728,14 +11814,14 @@
       <c r="C17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="33"/>
       <c r="H17" s="42" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I17" s="45" t="s">
         <v>457</v>
@@ -11757,16 +11843,16 @@
       <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="42" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F18" s="84"/>
+        <v>1239</v>
+      </c>
+      <c r="F18" s="87"/>
       <c r="G18" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>58</v>
@@ -11788,16 +11874,16 @@
       <c r="C19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="42" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F19" s="84"/>
+        <v>1238</v>
+      </c>
+      <c r="F19" s="87"/>
       <c r="G19" s="33" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>58</v>
@@ -11819,16 +11905,16 @@
       <c r="C20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="42" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>1244</v>
-      </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="33" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>1245</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>58</v>
@@ -11850,16 +11936,16 @@
       <c r="C21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="42" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="33" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H21" s="42" t="s">
         <v>1247</v>
-      </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="33" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>1248</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>58</v>
@@ -11881,19 +11967,19 @@
       <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="33" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>61</v>
@@ -11912,19 +11998,19 @@
       <c r="C23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="F23" s="84"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="33" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>61</v>
@@ -11943,19 +12029,19 @@
       <c r="C24" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="33" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>61</v>
@@ -11974,19 +12060,19 @@
       <c r="C25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="87"/>
       <c r="G25" s="33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H25" s="42" t="s">
         <v>1252</v>
       </c>
-      <c r="H25" s="42" t="s">
-        <v>1253</v>
-      </c>
       <c r="I25" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>61</v>
@@ -12005,16 +12091,16 @@
       <c r="C26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F26" s="84"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="33" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I26" s="45" t="s">
         <v>64</v>
@@ -12036,16 +12122,16 @@
       <c r="C27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F27" s="84"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="33" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I27" s="45" t="s">
         <v>64</v>
@@ -12067,16 +12153,16 @@
       <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="F28" s="84"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I28" s="45" t="s">
         <v>64</v>
@@ -12098,16 +12184,16 @@
       <c r="C29" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="F29" s="84"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="33" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>64</v>
@@ -12129,16 +12215,16 @@
       <c r="C30" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="84"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="33" t="s">
         <v>463</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I30" s="54" t="s">
         <v>67</v>
@@ -12160,16 +12246,16 @@
       <c r="C31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="F31" s="84"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="33" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I31" s="45" t="s">
         <v>470</v>
@@ -12191,16 +12277,16 @@
       <c r="C32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="33" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I32" s="45" t="s">
         <v>470</v>
@@ -12222,16 +12308,16 @@
       <c r="C33" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="F33" s="84"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I33" s="45" t="s">
         <v>470</v>
@@ -12253,16 +12339,16 @@
       <c r="C34" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F34" s="84"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="33" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I34" s="45" t="s">
         <v>470</v>
@@ -12284,11 +12370,11 @@
       <c r="C35" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="F35" s="84"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33" t="s">
         <v>475</v>
@@ -12313,11 +12399,11 @@
       <c r="C36" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="87"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="F36" s="84"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33" t="s">
         <v>478</v>
@@ -12342,11 +12428,11 @@
       <c r="C37" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="F37" s="84"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33" t="s">
         <v>480</v>
@@ -12371,11 +12457,11 @@
       <c r="C38" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33" t="s">
         <v>482</v>
@@ -12400,7 +12486,7 @@
       <c r="C39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="87"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="42" t="s">
         <v>484</v>
       </c>
@@ -12431,7 +12517,7 @@
       <c r="C40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="87"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="42" t="s">
         <v>486</v>
       </c>
@@ -12462,7 +12548,7 @@
       <c r="C41" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="87"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="42" t="s">
         <v>84</v>
       </c>
@@ -12493,7 +12579,7 @@
       <c r="C42" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="87"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="42" t="s">
         <v>93</v>
       </c>
@@ -12524,7 +12610,7 @@
       <c r="C43" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="87"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="42" t="s">
         <v>109</v>
       </c>
@@ -12555,7 +12641,7 @@
       <c r="C44" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="87"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="31" t="s">
         <v>112</v>
       </c>
@@ -12586,7 +12672,7 @@
       <c r="C45" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="87"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="42" t="s">
         <v>499</v>
       </c>
@@ -12617,7 +12703,7 @@
       <c r="C46" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="87"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="54" t="s">
         <v>500</v>
       </c>
@@ -12648,7 +12734,7 @@
       <c r="C47" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="88"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="54" t="s">
         <v>502</v>
       </c>
@@ -12672,21 +12758,21 @@
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>217</v>
@@ -12694,7 +12780,7 @@
       <c r="C49" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="42" t="s">
@@ -12704,10 +12790,10 @@
         <v>634</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I49" s="56" t="s">
         <v>85</v>
@@ -12721,7 +12807,7 @@
     </row>
     <row r="50" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>792</v>
@@ -12729,7 +12815,7 @@
       <c r="C50" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="87"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="42" t="s">
         <v>651</v>
       </c>
@@ -12740,7 +12826,7 @@
         <v>336</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I50" s="56" t="s">
         <v>85</v>
@@ -12754,7 +12840,7 @@
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>217</v>
@@ -12762,7 +12848,7 @@
       <c r="C51" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="87"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="42" t="s">
         <v>650</v>
       </c>
@@ -12770,10 +12856,10 @@
         <v>634</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I51" s="56" t="s">
         <v>621</v>
@@ -12787,7 +12873,7 @@
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>792</v>
@@ -12795,7 +12881,7 @@
       <c r="C52" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="87"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="42" t="s">
         <v>649</v>
       </c>
@@ -12803,10 +12889,10 @@
         <v>634</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I52" s="56" t="s">
         <v>624</v>
@@ -12820,7 +12906,7 @@
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>217</v>
@@ -12828,7 +12914,7 @@
       <c r="C53" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="87"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="42" t="s">
         <v>648</v>
       </c>
@@ -12836,10 +12922,10 @@
         <v>634</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I53" s="56" t="s">
         <v>669</v>
@@ -12853,7 +12939,7 @@
     </row>
     <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>217</v>
@@ -12861,7 +12947,7 @@
       <c r="C54" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="87"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="42" t="s">
         <v>647</v>
       </c>
@@ -12869,10 +12955,10 @@
         <v>634</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I54" s="56" t="s">
         <v>625</v>
@@ -12886,7 +12972,7 @@
     </row>
     <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B55" s="41" t="s">
         <v>217</v>
@@ -12894,7 +12980,7 @@
       <c r="C55" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="87"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="42" t="s">
         <v>646</v>
       </c>
@@ -12902,10 +12988,10 @@
         <v>634</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I55" s="56" t="s">
         <v>627</v>
@@ -12919,7 +13005,7 @@
     </row>
     <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>217</v>
@@ -12927,7 +13013,7 @@
       <c r="C56" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="87"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="42" t="s">
         <v>645</v>
       </c>
@@ -12935,10 +13021,10 @@
         <v>634</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I56" s="56" t="s">
         <v>629</v>
@@ -12952,7 +13038,7 @@
     </row>
     <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>793</v>
@@ -12960,7 +13046,7 @@
       <c r="C57" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="87"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="42" t="s">
         <v>796</v>
       </c>
@@ -12968,10 +13054,10 @@
         <v>634</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I57" s="56" t="s">
         <v>85</v>
@@ -12985,7 +13071,7 @@
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>793</v>
@@ -12993,7 +13079,7 @@
       <c r="C58" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="88"/>
+      <c r="D58" s="84"/>
       <c r="E58" s="42" t="s">
         <v>644</v>
       </c>
@@ -13001,10 +13087,10 @@
         <v>634</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I58" s="56" t="s">
         <v>85</v>
@@ -13019,21 +13105,21 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="85" t="s">
         <v>643</v>
       </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
     </row>
     <row r="60" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>793</v>
@@ -13041,7 +13127,7 @@
       <c r="C60" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="42" t="s">
@@ -13066,7 +13152,7 @@
     </row>
     <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>793</v>
@@ -13074,7 +13160,7 @@
       <c r="C61" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="87"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="42" t="s">
         <v>632</v>
       </c>
@@ -13082,10 +13168,10 @@
         <v>634</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I61" s="56" t="s">
         <v>88</v>
@@ -13099,7 +13185,7 @@
     </row>
     <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B62" s="41" t="s">
         <v>793</v>
@@ -13107,7 +13193,7 @@
       <c r="C62" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="87"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="42" t="s">
         <v>633</v>
       </c>
@@ -13115,10 +13201,10 @@
         <v>634</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I62" s="56" t="s">
         <v>88</v>
@@ -13132,7 +13218,7 @@
     </row>
     <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B63" s="41" t="s">
         <v>793</v>
@@ -13140,7 +13226,7 @@
       <c r="C63" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="87"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="42" t="s">
         <v>635</v>
       </c>
@@ -13148,16 +13234,16 @@
         <v>634</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I63" s="56" t="s">
         <v>88</v>
       </c>
       <c r="J63" s="56" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K63" s="37" t="s">
         <v>278</v>
@@ -13165,7 +13251,7 @@
     </row>
     <row r="64" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B64" s="41" t="s">
         <v>793</v>
@@ -13173,7 +13259,7 @@
       <c r="C64" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="87"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="42" t="s">
         <v>636</v>
       </c>
@@ -13181,10 +13267,10 @@
         <v>634</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I64" s="56" t="s">
         <v>637</v>
@@ -13198,7 +13284,7 @@
     </row>
     <row r="65" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B65" s="41" t="s">
         <v>792</v>
@@ -13206,7 +13292,7 @@
       <c r="C65" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="87"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="42" t="s">
         <v>638</v>
       </c>
@@ -13214,10 +13300,10 @@
         <v>634</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I65" s="56" t="s">
         <v>639</v>
@@ -13231,7 +13317,7 @@
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B66" s="41" t="s">
         <v>793</v>
@@ -13239,7 +13325,7 @@
       <c r="C66" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="87"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="42" t="s">
         <v>797</v>
       </c>
@@ -13247,10 +13333,10 @@
         <v>634</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I66" s="56" t="s">
         <v>85</v>
@@ -13264,7 +13350,7 @@
     </row>
     <row r="67" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B67" s="41" t="s">
         <v>217</v>
@@ -13272,18 +13358,18 @@
       <c r="C67" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="87"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="42" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>634</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I67" s="56" t="s">
         <v>640</v>
@@ -13297,7 +13383,7 @@
     </row>
     <row r="68" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B68" s="41" t="s">
         <v>217</v>
@@ -13305,7 +13391,7 @@
       <c r="C68" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="88"/>
+      <c r="D68" s="84"/>
       <c r="E68" s="42" t="s">
         <v>798</v>
       </c>
@@ -13313,10 +13399,10 @@
         <v>634</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I68" s="56" t="s">
         <v>641</v>
@@ -13331,21 +13417,21 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="85" t="s">
         <v>658</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
     </row>
     <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B70" s="41" t="s">
         <v>217</v>
@@ -13353,7 +13439,7 @@
       <c r="C70" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="86" t="s">
+      <c r="D70" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="42" t="s">
@@ -13363,10 +13449,10 @@
         <v>799</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I70" s="56" t="s">
         <v>660</v>
@@ -13380,7 +13466,7 @@
     </row>
     <row r="71" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>217</v>
@@ -13388,7 +13474,7 @@
       <c r="C71" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="87"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="42" t="s">
         <v>661</v>
       </c>
@@ -13396,10 +13482,10 @@
         <v>799</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I71" s="56" t="s">
         <v>662</v>
@@ -13413,7 +13499,7 @@
     </row>
     <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>792</v>
@@ -13421,7 +13507,7 @@
       <c r="C72" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="87"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="42" t="s">
         <v>663</v>
       </c>
@@ -13429,10 +13515,10 @@
         <v>799</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I72" s="56" t="s">
         <v>664</v>
@@ -13446,7 +13532,7 @@
     </row>
     <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>792</v>
@@ -13454,7 +13540,7 @@
       <c r="C73" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="87"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="42" t="s">
         <v>665</v>
       </c>
@@ -13462,10 +13548,10 @@
         <v>799</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I73" s="56" t="s">
         <v>666</v>
@@ -13479,7 +13565,7 @@
     </row>
     <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B74" s="41" t="s">
         <v>793</v>
@@ -13487,7 +13573,7 @@
       <c r="C74" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="87"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="42" t="s">
         <v>667</v>
       </c>
@@ -13495,10 +13581,10 @@
         <v>799</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I74" s="56" t="s">
         <v>625</v>
@@ -13512,7 +13598,7 @@
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B75" s="41" t="s">
         <v>217</v>
@@ -13520,7 +13606,7 @@
       <c r="C75" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="87"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="42" t="s">
         <v>671</v>
       </c>
@@ -13528,10 +13614,10 @@
         <v>799</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>676</v>
@@ -13545,7 +13631,7 @@
     </row>
     <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B76" s="41" t="s">
         <v>217</v>
@@ -13553,7 +13639,7 @@
       <c r="C76" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="87"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="42" t="s">
         <v>672</v>
       </c>
@@ -13561,10 +13647,10 @@
         <v>799</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I76" s="56" t="s">
         <v>674</v>
@@ -13578,7 +13664,7 @@
     </row>
     <row r="77" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>793</v>
@@ -13586,7 +13672,7 @@
       <c r="C77" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="42" t="s">
         <v>800</v>
       </c>
@@ -13594,10 +13680,10 @@
         <v>799</v>
       </c>
       <c r="G77" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H77" s="33" t="s">
         <v>1287</v>
-      </c>
-      <c r="H77" s="33" t="s">
-        <v>1288</v>
       </c>
       <c r="I77" s="56" t="s">
         <v>682</v>
@@ -13611,7 +13697,7 @@
     </row>
     <row r="78" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B78" s="41" t="s">
         <v>793</v>
@@ -13619,7 +13705,7 @@
       <c r="C78" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="88"/>
+      <c r="D78" s="84"/>
       <c r="E78" s="42" t="s">
         <v>678</v>
       </c>
@@ -13627,10 +13713,10 @@
         <v>679</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I78" s="56" t="s">
         <v>681</v>
@@ -13645,21 +13731,21 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="85" t="s">
         <v>657</v>
       </c>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="82"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="82"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
     </row>
     <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>793</v>
@@ -13667,7 +13753,7 @@
       <c r="C80" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="86" t="s">
+      <c r="D80" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="42" t="s">
@@ -13677,10 +13763,10 @@
         <v>799</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I80" s="56" t="s">
         <v>85</v>
@@ -13694,7 +13780,7 @@
     </row>
     <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>792</v>
@@ -13702,16 +13788,16 @@
       <c r="C81" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="87"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="42" t="s">
         <v>684</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G81" s="33"/>
       <c r="H81" s="33" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>85</v>
@@ -13725,7 +13811,7 @@
     </row>
     <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>217</v>
@@ -13733,7 +13819,7 @@
       <c r="C82" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="87"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="42" t="s">
         <v>685</v>
       </c>
@@ -13741,10 +13827,10 @@
         <v>799</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I82" s="56" t="s">
         <v>687</v>
@@ -13758,7 +13844,7 @@
     </row>
     <row r="83" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B83" s="41" t="s">
         <v>217</v>
@@ -13766,7 +13852,7 @@
       <c r="C83" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="87"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="42" t="s">
         <v>688</v>
       </c>
@@ -13774,10 +13860,10 @@
         <v>799</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I83" s="56" t="s">
         <v>686</v>
@@ -13791,7 +13877,7 @@
     </row>
     <row r="84" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>792</v>
@@ -13799,7 +13885,7 @@
       <c r="C84" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="87"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="42" t="s">
         <v>689</v>
       </c>
@@ -13807,10 +13893,10 @@
         <v>799</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I84" s="56" t="s">
         <v>690</v>
@@ -13824,7 +13910,7 @@
     </row>
     <row r="85" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>792</v>
@@ -13832,7 +13918,7 @@
       <c r="C85" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="87"/>
+      <c r="D85" s="83"/>
       <c r="E85" s="42" t="s">
         <v>691</v>
       </c>
@@ -13840,10 +13926,10 @@
         <v>799</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I85" s="56" t="s">
         <v>692</v>
@@ -13857,7 +13943,7 @@
     </row>
     <row r="86" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B86" s="41" t="s">
         <v>793</v>
@@ -13865,7 +13951,7 @@
       <c r="C86" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="87"/>
+      <c r="D86" s="83"/>
       <c r="E86" s="42" t="s">
         <v>693</v>
       </c>
@@ -13873,10 +13959,10 @@
         <v>799</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>695</v>
@@ -13890,7 +13976,7 @@
     </row>
     <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B87" s="41" t="s">
         <v>217</v>
@@ -13898,7 +13984,7 @@
       <c r="C87" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="87"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="42" t="s">
         <v>696</v>
       </c>
@@ -13906,10 +13992,10 @@
         <v>799</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I87" s="56" t="s">
         <v>697</v>
@@ -13923,7 +14009,7 @@
     </row>
     <row r="88" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B88" s="41" t="s">
         <v>217</v>
@@ -13931,7 +14017,7 @@
       <c r="C88" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="88"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="42" t="s">
         <v>698</v>
       </c>
@@ -13939,10 +14025,10 @@
         <v>799</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I88" s="56" t="s">
         <v>699</v>
@@ -13957,21 +14043,21 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="82" t="s">
+      <c r="C89" s="85" t="s">
         <v>705</v>
       </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
     </row>
     <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B90" s="41" t="s">
         <v>217</v>
@@ -13979,7 +14065,7 @@
       <c r="C90" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="42" t="s">
@@ -13989,10 +14075,10 @@
         <v>655</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I90" s="56" t="s">
         <v>621</v>
@@ -14006,7 +14092,7 @@
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B91" s="41" t="s">
         <v>217</v>
@@ -14014,7 +14100,7 @@
       <c r="C91" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="87"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="42" t="s">
         <v>706</v>
       </c>
@@ -14022,10 +14108,10 @@
         <v>655</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I91" s="56" t="s">
         <v>621</v>
@@ -14039,7 +14125,7 @@
     </row>
     <row r="92" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B92" s="41" t="s">
         <v>217</v>
@@ -14047,7 +14133,7 @@
       <c r="C92" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="87"/>
+      <c r="D92" s="83"/>
       <c r="E92" s="42" t="s">
         <v>708</v>
       </c>
@@ -14055,10 +14141,10 @@
         <v>655</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I92" s="56" t="s">
         <v>621</v>
@@ -14072,7 +14158,7 @@
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>217</v>
@@ -14080,7 +14166,7 @@
       <c r="C93" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="87"/>
+      <c r="D93" s="83"/>
       <c r="E93" s="42" t="s">
         <v>708</v>
       </c>
@@ -14088,10 +14174,10 @@
         <v>655</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I93" s="56" t="s">
         <v>621</v>
@@ -14105,7 +14191,7 @@
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>793</v>
@@ -14113,7 +14199,7 @@
       <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="87"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="42" t="s">
         <v>709</v>
       </c>
@@ -14121,10 +14207,10 @@
         <v>655</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>621</v>
@@ -14138,7 +14224,7 @@
     </row>
     <row r="95" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>793</v>
@@ -14146,7 +14232,7 @@
       <c r="C95" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="87"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="42" t="s">
         <v>710</v>
       </c>
@@ -14154,10 +14240,10 @@
         <v>655</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I95" s="56" t="s">
         <v>621</v>
@@ -14171,7 +14257,7 @@
     </row>
     <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B96" s="41" t="s">
         <v>217</v>
@@ -14179,7 +14265,7 @@
       <c r="C96" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="42" t="s">
         <v>711</v>
       </c>
@@ -14187,10 +14273,10 @@
         <v>655</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>621</v>
@@ -14204,7 +14290,7 @@
     </row>
     <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B97" s="41" t="s">
         <v>217</v>
@@ -14212,7 +14298,7 @@
       <c r="C97" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="87"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="42" t="s">
         <v>712</v>
       </c>
@@ -14220,10 +14306,10 @@
         <v>655</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I97" s="56" t="s">
         <v>621</v>
@@ -14237,7 +14323,7 @@
     </row>
     <row r="98" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B98" s="41" t="s">
         <v>217</v>
@@ -14245,18 +14331,18 @@
       <c r="C98" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="87"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="42" t="s">
         <v>713</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I98" s="56" t="s">
         <v>621</v>
@@ -14270,7 +14356,7 @@
     </row>
     <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B99" s="41" t="s">
         <v>217</v>
@@ -14278,7 +14364,7 @@
       <c r="C99" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D99" s="87"/>
+      <c r="D99" s="83"/>
       <c r="E99" s="42" t="s">
         <v>716</v>
       </c>
@@ -14286,10 +14372,10 @@
         <v>655</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I99" s="56" t="s">
         <v>621</v>
@@ -14303,7 +14389,7 @@
     </row>
     <row r="100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B100" s="41" t="s">
         <v>217</v>
@@ -14311,7 +14397,7 @@
       <c r="C100" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D100" s="87"/>
+      <c r="D100" s="83"/>
       <c r="E100" s="42" t="s">
         <v>717</v>
       </c>
@@ -14319,10 +14405,10 @@
         <v>655</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I100" s="56" t="s">
         <v>621</v>
@@ -14336,7 +14422,7 @@
     </row>
     <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B101" s="41" t="s">
         <v>217</v>
@@ -14344,7 +14430,7 @@
       <c r="C101" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D101" s="87"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="42" t="s">
         <v>718</v>
       </c>
@@ -14352,10 +14438,10 @@
         <v>655</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I101" s="56" t="s">
         <v>621</v>
@@ -14369,7 +14455,7 @@
     </row>
     <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B102" s="41" t="s">
         <v>793</v>
@@ -14377,7 +14463,7 @@
       <c r="C102" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="87"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="42" t="s">
         <v>719</v>
       </c>
@@ -14385,10 +14471,10 @@
         <v>655</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I102" s="56" t="s">
         <v>621</v>
@@ -14402,7 +14488,7 @@
     </row>
     <row r="103" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B103" s="41" t="s">
         <v>793</v>
@@ -14410,7 +14496,7 @@
       <c r="C103" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D103" s="87"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="42" t="s">
         <v>720</v>
       </c>
@@ -14418,10 +14504,10 @@
         <v>655</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I103" s="56" t="s">
         <v>621</v>
@@ -14435,7 +14521,7 @@
     </row>
     <row r="104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B104" s="41" t="s">
         <v>217</v>
@@ -14443,7 +14529,7 @@
       <c r="C104" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="87"/>
+      <c r="D104" s="83"/>
       <c r="E104" s="42" t="s">
         <v>721</v>
       </c>
@@ -14451,10 +14537,10 @@
         <v>655</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I104" s="56" t="s">
         <v>621</v>
@@ -14468,7 +14554,7 @@
     </row>
     <row r="105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B105" s="41" t="s">
         <v>217</v>
@@ -14476,7 +14562,7 @@
       <c r="C105" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="87"/>
+      <c r="D105" s="83"/>
       <c r="E105" s="42" t="s">
         <v>722</v>
       </c>
@@ -14484,10 +14570,10 @@
         <v>655</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I105" s="56" t="s">
         <v>621</v>
@@ -14501,7 +14587,7 @@
     </row>
     <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B106" s="41" t="s">
         <v>217</v>
@@ -14509,7 +14595,7 @@
       <c r="C106" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="87"/>
+      <c r="D106" s="83"/>
       <c r="E106" s="42" t="s">
         <v>715</v>
       </c>
@@ -14517,10 +14603,10 @@
         <v>655</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I106" s="56" t="s">
         <v>621</v>
@@ -14534,7 +14620,7 @@
     </row>
     <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B107" s="41" t="s">
         <v>217</v>
@@ -14542,7 +14628,7 @@
       <c r="C107" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="87"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="42" t="s">
         <v>723</v>
       </c>
@@ -14550,10 +14636,10 @@
         <v>655</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I107" s="56" t="s">
         <v>621</v>
@@ -14567,7 +14653,7 @@
     </row>
     <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B108" s="41" t="s">
         <v>793</v>
@@ -14575,7 +14661,7 @@
       <c r="C108" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D108" s="87"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="42" t="s">
         <v>724</v>
       </c>
@@ -14583,10 +14669,10 @@
         <v>655</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H108" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I108" s="56" t="s">
         <v>621</v>
@@ -14600,7 +14686,7 @@
     </row>
     <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B109" s="41" t="s">
         <v>793</v>
@@ -14608,7 +14694,7 @@
       <c r="C109" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D109" s="87"/>
+      <c r="D109" s="83"/>
       <c r="E109" s="42" t="s">
         <v>725</v>
       </c>
@@ -14616,10 +14702,10 @@
         <v>655</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I109" s="56" t="s">
         <v>621</v>
@@ -14633,7 +14719,7 @@
     </row>
     <row r="110" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B110" s="41" t="s">
         <v>793</v>
@@ -14641,7 +14727,7 @@
       <c r="C110" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="87"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="42" t="s">
         <v>726</v>
       </c>
@@ -14649,10 +14735,10 @@
         <v>655</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H110" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I110" s="56" t="s">
         <v>621</v>
@@ -14666,7 +14752,7 @@
     </row>
     <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B111" s="41" t="s">
         <v>793</v>
@@ -14674,7 +14760,7 @@
       <c r="C111" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="88"/>
+      <c r="D111" s="84"/>
       <c r="E111" s="42" t="s">
         <v>750</v>
       </c>
@@ -14682,10 +14768,10 @@
         <v>655</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H111" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I111" s="56" t="s">
         <v>621</v>
@@ -14700,21 +14786,21 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="82" t="s">
+      <c r="C112" s="85" t="s">
         <v>727</v>
       </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="85"/>
+      <c r="K112" s="85"/>
     </row>
     <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B113" s="41" t="s">
         <v>793</v>
@@ -14722,20 +14808,20 @@
       <c r="C113" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D113" s="86" t="s">
+      <c r="D113" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E113" s="42" t="s">
         <v>738</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I113" s="56" t="s">
         <v>621</v>
@@ -14749,7 +14835,7 @@
     </row>
     <row r="114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B114" s="41" t="s">
         <v>793</v>
@@ -14757,18 +14843,18 @@
       <c r="C114" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="87"/>
+      <c r="D114" s="83"/>
       <c r="E114" s="42" t="s">
         <v>729</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I114" s="56" t="s">
         <v>621</v>
@@ -14782,7 +14868,7 @@
     </row>
     <row r="115" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B115" s="41" t="s">
         <v>793</v>
@@ -14790,18 +14876,18 @@
       <c r="C115" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D115" s="87"/>
+      <c r="D115" s="83"/>
       <c r="E115" s="42" t="s">
         <v>728</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H115" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I115" s="56" t="s">
         <v>621</v>
@@ -14815,7 +14901,7 @@
     </row>
     <row r="116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B116" s="41" t="s">
         <v>793</v>
@@ -14823,18 +14909,18 @@
       <c r="C116" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D116" s="87"/>
+      <c r="D116" s="83"/>
       <c r="E116" s="42" t="s">
         <v>730</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H116" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I116" s="56" t="s">
         <v>621</v>
@@ -14848,7 +14934,7 @@
     </row>
     <row r="117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B117" s="41" t="s">
         <v>792</v>
@@ -14856,18 +14942,18 @@
       <c r="C117" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D117" s="87"/>
+      <c r="D117" s="83"/>
       <c r="E117" s="42" t="s">
         <v>731</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H117" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I117" s="56" t="s">
         <v>621</v>
@@ -14881,7 +14967,7 @@
     </row>
     <row r="118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B118" s="41" t="s">
         <v>792</v>
@@ -14889,18 +14975,18 @@
       <c r="C118" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D118" s="87"/>
+      <c r="D118" s="83"/>
       <c r="E118" s="42" t="s">
         <v>732</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I118" s="56" t="s">
         <v>621</v>
@@ -14914,7 +15000,7 @@
     </row>
     <row r="119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B119" s="41" t="s">
         <v>793</v>
@@ -14922,7 +15008,7 @@
       <c r="C119" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D119" s="87"/>
+      <c r="D119" s="83"/>
       <c r="E119" s="42" t="s">
         <v>733</v>
       </c>
@@ -14930,10 +15016,10 @@
         <v>655</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I119" s="56" t="s">
         <v>621</v>
@@ -14947,7 +15033,7 @@
     </row>
     <row r="120" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B120" s="41" t="s">
         <v>217</v>
@@ -14955,18 +15041,18 @@
       <c r="C120" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D120" s="87"/>
+      <c r="D120" s="83"/>
       <c r="E120" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F120" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H120" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I120" s="56" t="s">
         <v>621</v>
@@ -14980,7 +15066,7 @@
     </row>
     <row r="121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B121" s="41" t="s">
         <v>217</v>
@@ -14988,18 +15074,18 @@
       <c r="C121" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="87"/>
+      <c r="D121" s="83"/>
       <c r="E121" s="42" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I121" s="56" t="s">
         <v>621</v>
@@ -15013,7 +15099,7 @@
     </row>
     <row r="122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B122" s="41" t="s">
         <v>217</v>
@@ -15021,7 +15107,7 @@
       <c r="C122" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="87"/>
+      <c r="D122" s="83"/>
       <c r="E122" s="42" t="s">
         <v>734</v>
       </c>
@@ -15029,10 +15115,10 @@
         <v>655</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I122" s="56" t="s">
         <v>621</v>
@@ -15046,7 +15132,7 @@
     </row>
     <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B123" s="41" t="s">
         <v>217</v>
@@ -15054,7 +15140,7 @@
       <c r="C123" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D123" s="87"/>
+      <c r="D123" s="83"/>
       <c r="E123" s="42" t="s">
         <v>735</v>
       </c>
@@ -15062,10 +15148,10 @@
         <v>655</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I123" s="56" t="s">
         <v>621</v>
@@ -15079,7 +15165,7 @@
     </row>
     <row r="124" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B124" s="41" t="s">
         <v>793</v>
@@ -15087,7 +15173,7 @@
       <c r="C124" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D124" s="87"/>
+      <c r="D124" s="83"/>
       <c r="E124" s="42" t="s">
         <v>736</v>
       </c>
@@ -15095,10 +15181,10 @@
         <v>655</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I124" s="56" t="s">
         <v>621</v>
@@ -15112,7 +15198,7 @@
     </row>
     <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B125" s="41" t="s">
         <v>793</v>
@@ -15120,7 +15206,7 @@
       <c r="C125" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D125" s="87"/>
+      <c r="D125" s="83"/>
       <c r="E125" s="42" t="s">
         <v>739</v>
       </c>
@@ -15128,10 +15214,10 @@
         <v>655</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I125" s="56" t="s">
         <v>621</v>
@@ -15145,7 +15231,7 @@
     </row>
     <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B126" s="41" t="s">
         <v>793</v>
@@ -15153,7 +15239,7 @@
       <c r="C126" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="87"/>
+      <c r="D126" s="83"/>
       <c r="E126" s="42" t="s">
         <v>740</v>
       </c>
@@ -15161,10 +15247,10 @@
         <v>655</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H126" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I126" s="56" t="s">
         <v>621</v>
@@ -15178,7 +15264,7 @@
     </row>
     <row r="127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B127" s="41" t="s">
         <v>793</v>
@@ -15186,7 +15272,7 @@
       <c r="C127" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D127" s="87"/>
+      <c r="D127" s="83"/>
       <c r="E127" s="42" t="s">
         <v>741</v>
       </c>
@@ -15194,10 +15280,10 @@
         <v>655</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I127" s="56" t="s">
         <v>621</v>
@@ -15211,7 +15297,7 @@
     </row>
     <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B128" s="41" t="s">
         <v>793</v>
@@ -15219,7 +15305,7 @@
       <c r="C128" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="87"/>
+      <c r="D128" s="83"/>
       <c r="E128" s="42" t="s">
         <v>742</v>
       </c>
@@ -15227,10 +15313,10 @@
         <v>655</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I128" s="56" t="s">
         <v>621</v>
@@ -15244,7 +15330,7 @@
     </row>
     <row r="129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B129" s="41" t="s">
         <v>793</v>
@@ -15252,18 +15338,18 @@
       <c r="C129" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D129" s="87"/>
+      <c r="D129" s="83"/>
       <c r="E129" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F129" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I129" s="56" t="s">
         <v>621</v>
@@ -15277,7 +15363,7 @@
     </row>
     <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B130" s="41" t="s">
         <v>793</v>
@@ -15285,7 +15371,7 @@
       <c r="C130" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="87"/>
+      <c r="D130" s="83"/>
       <c r="E130" s="42" t="s">
         <v>743</v>
       </c>
@@ -15293,10 +15379,10 @@
         <v>655</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I130" s="56" t="s">
         <v>621</v>
@@ -15310,7 +15396,7 @@
     </row>
     <row r="131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B131" s="41" t="s">
         <v>793</v>
@@ -15318,7 +15404,7 @@
       <c r="C131" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D131" s="87"/>
+      <c r="D131" s="83"/>
       <c r="E131" s="42" t="s">
         <v>746</v>
       </c>
@@ -15326,10 +15412,10 @@
         <v>655</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I131" s="56" t="s">
         <v>621</v>
@@ -15343,7 +15429,7 @@
     </row>
     <row r="132" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B132" s="41" t="s">
         <v>793</v>
@@ -15351,7 +15437,7 @@
       <c r="C132" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D132" s="87"/>
+      <c r="D132" s="83"/>
       <c r="E132" s="42" t="s">
         <v>745</v>
       </c>
@@ -15359,10 +15445,10 @@
         <v>655</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I132" s="56" t="s">
         <v>621</v>
@@ -15376,7 +15462,7 @@
     </row>
     <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B133" s="41" t="s">
         <v>793</v>
@@ -15384,7 +15470,7 @@
       <c r="C133" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D133" s="87"/>
+      <c r="D133" s="83"/>
       <c r="E133" s="42" t="s">
         <v>744</v>
       </c>
@@ -15392,10 +15478,10 @@
         <v>655</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I133" s="56" t="s">
         <v>621</v>
@@ -15409,7 +15495,7 @@
     </row>
     <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B134" s="41" t="s">
         <v>793</v>
@@ -15417,18 +15503,18 @@
       <c r="C134" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D134" s="87"/>
+      <c r="D134" s="83"/>
       <c r="E134" s="42" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F134" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H134" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I134" s="56" t="s">
         <v>621</v>
@@ -15442,7 +15528,7 @@
     </row>
     <row r="135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B135" s="41" t="s">
         <v>793</v>
@@ -15450,7 +15536,7 @@
       <c r="C135" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D135" s="87"/>
+      <c r="D135" s="83"/>
       <c r="E135" s="42" t="s">
         <v>747</v>
       </c>
@@ -15458,10 +15544,10 @@
         <v>655</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H135" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I135" s="56" t="s">
         <v>621</v>
@@ -15475,7 +15561,7 @@
     </row>
     <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B136" s="41" t="s">
         <v>793</v>
@@ -15483,18 +15569,18 @@
       <c r="C136" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D136" s="87"/>
+      <c r="D136" s="83"/>
       <c r="E136" s="42" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F136" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I136" s="56" t="s">
         <v>621</v>
@@ -15508,7 +15594,7 @@
     </row>
     <row r="137" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B137" s="41" t="s">
         <v>217</v>
@@ -15516,18 +15602,18 @@
       <c r="C137" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D137" s="87"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="42" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F137" s="33" t="s">
         <v>655</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I137" s="56" t="s">
         <v>621</v>
@@ -15541,7 +15627,7 @@
     </row>
     <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B138" s="41" t="s">
         <v>217</v>
@@ -15549,7 +15635,7 @@
       <c r="C138" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="87"/>
+      <c r="D138" s="83"/>
       <c r="E138" s="42" t="s">
         <v>748</v>
       </c>
@@ -15557,10 +15643,10 @@
         <v>655</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I138" s="56" t="s">
         <v>621</v>
@@ -15574,7 +15660,7 @@
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B139" s="41" t="s">
         <v>217</v>
@@ -15582,18 +15668,18 @@
       <c r="C139" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="88"/>
+      <c r="D139" s="84"/>
       <c r="E139" s="42" t="s">
         <v>749</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G139" s="33" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H139" s="33" t="s">
         <v>1344</v>
-      </c>
-      <c r="H139" s="33" t="s">
-        <v>1345</v>
       </c>
       <c r="I139" s="56" t="s">
         <v>621</v>
@@ -15608,21 +15694,21 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
-      <c r="C140" s="82" t="s">
+      <c r="C140" s="85" t="s">
         <v>751</v>
       </c>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="82"/>
-      <c r="I140" s="82"/>
-      <c r="J140" s="82"/>
-      <c r="K140" s="82"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+      <c r="J140" s="85"/>
+      <c r="K140" s="85"/>
     </row>
     <row r="141" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B141" s="41" t="s">
         <v>217</v>
@@ -15630,20 +15716,20 @@
       <c r="C141" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D141" s="86" t="s">
+      <c r="D141" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E141" s="42" t="s">
         <v>753</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H141" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I141" s="56" t="s">
         <v>621</v>
@@ -15657,7 +15743,7 @@
     </row>
     <row r="142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>217</v>
@@ -15665,18 +15751,18 @@
       <c r="C142" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D142" s="87"/>
+      <c r="D142" s="83"/>
       <c r="E142" s="42" t="s">
         <v>752</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H142" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I142" s="56" t="s">
         <v>621</v>
@@ -15690,7 +15776,7 @@
     </row>
     <row r="143" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B143" s="41" t="s">
         <v>217</v>
@@ -15698,18 +15784,18 @@
       <c r="C143" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D143" s="87"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="42" t="s">
         <v>754</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H143" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I143" s="56" t="s">
         <v>621</v>
@@ -15723,7 +15809,7 @@
     </row>
     <row r="144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B144" s="41" t="s">
         <v>217</v>
@@ -15731,18 +15817,18 @@
       <c r="C144" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D144" s="87"/>
+      <c r="D144" s="83"/>
       <c r="E144" s="42" t="s">
         <v>755</v>
       </c>
       <c r="F144" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H144" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I144" s="56" t="s">
         <v>621</v>
@@ -15756,7 +15842,7 @@
     </row>
     <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B145" s="41" t="s">
         <v>217</v>
@@ -15764,7 +15850,7 @@
       <c r="C145" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D145" s="88"/>
+      <c r="D145" s="84"/>
       <c r="E145" s="42" t="s">
         <v>756</v>
       </c>
@@ -15772,10 +15858,10 @@
         <v>656</v>
       </c>
       <c r="G145" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H145" s="33" t="s">
         <v>1350</v>
-      </c>
-      <c r="H145" s="33" t="s">
-        <v>1351</v>
       </c>
       <c r="I145" s="56" t="s">
         <v>621</v>
@@ -15790,21 +15876,21 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="82" t="s">
+      <c r="C146" s="85" t="s">
         <v>757</v>
       </c>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="82"/>
-      <c r="H146" s="82"/>
-      <c r="I146" s="82"/>
-      <c r="J146" s="82"/>
-      <c r="K146" s="82"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="85"/>
     </row>
     <row r="147" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B147" s="41" t="s">
         <v>217</v>
@@ -15812,20 +15898,20 @@
       <c r="C147" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D147" s="86" t="s">
+      <c r="D147" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E147" s="42" t="s">
         <v>762</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H147" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I147" s="56" t="s">
         <v>621</v>
@@ -15839,7 +15925,7 @@
     </row>
     <row r="148" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B148" s="41" t="s">
         <v>217</v>
@@ -15847,18 +15933,18 @@
       <c r="C148" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D148" s="87"/>
+      <c r="D148" s="83"/>
       <c r="E148" s="42" t="s">
         <v>761</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H148" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I148" s="56" t="s">
         <v>621</v>
@@ -15872,7 +15958,7 @@
     </row>
     <row r="149" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B149" s="41" t="s">
         <v>217</v>
@@ -15880,18 +15966,18 @@
       <c r="C149" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D149" s="87"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="42" t="s">
         <v>763</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I149" s="56" t="s">
         <v>621</v>
@@ -15905,7 +15991,7 @@
     </row>
     <row r="150" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="31" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B150" s="41" t="s">
         <v>217</v>
@@ -15913,16 +15999,16 @@
       <c r="C150" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="87"/>
+      <c r="D150" s="83"/>
       <c r="E150" s="42" t="s">
         <v>764</v>
       </c>
       <c r="F150" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G150" s="33"/>
       <c r="H150" s="33" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I150" s="56" t="s">
         <v>621</v>
@@ -15936,7 +16022,7 @@
     </row>
     <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B151" s="41" t="s">
         <v>217</v>
@@ -15944,18 +16030,18 @@
       <c r="C151" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D151" s="87"/>
+      <c r="D151" s="83"/>
       <c r="E151" s="42" t="s">
         <v>765</v>
       </c>
       <c r="F151" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I151" s="56" t="s">
         <v>621</v>
@@ -15969,7 +16055,7 @@
     </row>
     <row r="152" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="31" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B152" s="41" t="s">
         <v>217</v>
@@ -15977,18 +16063,18 @@
       <c r="C152" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D152" s="87"/>
+      <c r="D152" s="83"/>
       <c r="E152" s="42" t="s">
         <v>766</v>
       </c>
       <c r="F152" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I152" s="56" t="s">
         <v>621</v>
@@ -16002,7 +16088,7 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B153" s="41" t="s">
         <v>792</v>
@@ -16010,18 +16096,18 @@
       <c r="C153" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D153" s="87"/>
+      <c r="D153" s="83"/>
       <c r="E153" s="42" t="s">
         <v>767</v>
       </c>
       <c r="F153" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I153" s="56" t="s">
         <v>621</v>
@@ -16035,7 +16121,7 @@
     </row>
     <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B154" s="41" t="s">
         <v>792</v>
@@ -16043,18 +16129,18 @@
       <c r="C154" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D154" s="87"/>
+      <c r="D154" s="83"/>
       <c r="E154" s="42" t="s">
         <v>768</v>
       </c>
       <c r="F154" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I154" s="56" t="s">
         <v>621</v>
@@ -16068,7 +16154,7 @@
     </row>
     <row r="155" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="31" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>793</v>
@@ -16076,18 +16162,18 @@
       <c r="C155" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D155" s="87"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="42" t="s">
         <v>769</v>
       </c>
       <c r="F155" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I155" s="56" t="s">
         <v>621</v>
@@ -16101,7 +16187,7 @@
     </row>
     <row r="156" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B156" s="41" t="s">
         <v>217</v>
@@ -16109,18 +16195,18 @@
       <c r="C156" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D156" s="87"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="42" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F156" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I156" s="56" t="s">
         <v>621</v>
@@ -16134,7 +16220,7 @@
     </row>
     <row r="157" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="31" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B157" s="41" t="s">
         <v>217</v>
@@ -16142,18 +16228,18 @@
       <c r="C157" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D157" s="87"/>
+      <c r="D157" s="83"/>
       <c r="E157" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F157" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I157" s="56" t="s">
         <v>621</v>
@@ -16167,7 +16253,7 @@
     </row>
     <row r="158" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="31" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B158" s="41" t="s">
         <v>793</v>
@@ -16175,18 +16261,18 @@
       <c r="C158" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D158" s="87"/>
+      <c r="D158" s="83"/>
       <c r="E158" s="42" t="s">
         <v>770</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I158" s="56" t="s">
         <v>621</v>
@@ -16200,7 +16286,7 @@
     </row>
     <row r="159" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B159" s="31" t="s">
         <v>793</v>
@@ -16208,18 +16294,18 @@
       <c r="C159" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D159" s="87"/>
+      <c r="D159" s="83"/>
       <c r="E159" s="42" t="s">
         <v>771</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I159" s="56" t="s">
         <v>621</v>
@@ -16233,7 +16319,7 @@
     </row>
     <row r="160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="31" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B160" s="41" t="s">
         <v>217</v>
@@ -16241,18 +16327,18 @@
       <c r="C160" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D160" s="87"/>
+      <c r="D160" s="83"/>
       <c r="E160" s="42" t="s">
         <v>773</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G160" s="33" t="s">
         <v>759</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I160" s="56" t="s">
         <v>621</v>
@@ -16266,7 +16352,7 @@
     </row>
     <row r="161" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B161" s="41" t="s">
         <v>217</v>
@@ -16274,18 +16360,18 @@
       <c r="C161" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D161" s="88"/>
+      <c r="D161" s="84"/>
       <c r="E161" s="42" t="s">
         <v>774</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I161" s="56" t="s">
         <v>621</v>
@@ -16298,21 +16384,21 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C162" s="82" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D162" s="82"/>
-      <c r="E162" s="82"/>
-      <c r="F162" s="82"/>
-      <c r="G162" s="82"/>
-      <c r="H162" s="82"/>
-      <c r="I162" s="82"/>
-      <c r="J162" s="82"/>
-      <c r="K162" s="82"/>
+      <c r="C162" s="85" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
     </row>
     <row r="163" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B163" s="41" t="s">
         <v>217</v>
@@ -16320,18 +16406,18 @@
       <c r="C163" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="86" t="s">
+      <c r="D163" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E163" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F163" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G163" s="33"/>
       <c r="H163" s="33" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I163" s="56" t="s">
         <v>621</v>
@@ -16343,7 +16429,7 @@
     </row>
     <row r="164" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B164" s="41" t="s">
         <v>217</v>
@@ -16351,19 +16437,19 @@
       <c r="C164" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D164" s="87"/>
+      <c r="D164" s="83"/>
       <c r="E164" s="42" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G164" s="33"/>
       <c r="H164" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I164" s="56" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J164" s="56"/>
       <c r="K164" s="55" t="s">
@@ -16372,7 +16458,7 @@
     </row>
     <row r="165" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="31" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B165" s="41" t="s">
         <v>217</v>
@@ -16380,19 +16466,19 @@
       <c r="C165" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D165" s="87"/>
+      <c r="D165" s="83"/>
       <c r="E165" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F165" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G165" s="33"/>
       <c r="H165" s="33" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I165" s="56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J165" s="56"/>
       <c r="K165" s="37" t="s">
@@ -16401,7 +16487,7 @@
     </row>
     <row r="166" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B166" s="41" t="s">
         <v>217</v>
@@ -16409,19 +16495,19 @@
       <c r="C166" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D166" s="87"/>
+      <c r="D166" s="83"/>
       <c r="E166" s="42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F166" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G166" s="33"/>
       <c r="H166" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I166" s="56" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J166" s="56"/>
       <c r="K166" s="55" t="s">
@@ -16430,7 +16516,7 @@
     </row>
     <row r="167" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B167" s="41" t="s">
         <v>217</v>
@@ -16438,19 +16524,19 @@
       <c r="C167" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D167" s="87"/>
+      <c r="D167" s="83"/>
       <c r="E167" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F167" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G167" s="33"/>
       <c r="H167" s="33" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I167" s="56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J167" s="56"/>
       <c r="K167" s="37" t="s">
@@ -16459,7 +16545,7 @@
     </row>
     <row r="168" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B168" s="41" t="s">
         <v>217</v>
@@ -16467,19 +16553,19 @@
       <c r="C168" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D168" s="87"/>
+      <c r="D168" s="83"/>
       <c r="E168" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F168" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G168" s="33"/>
       <c r="H168" s="33" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I168" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J168" s="56"/>
       <c r="K168" s="55" t="s">
@@ -16488,7 +16574,7 @@
     </row>
     <row r="169" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B169" s="41" t="s">
         <v>217</v>
@@ -16496,19 +16582,19 @@
       <c r="C169" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D169" s="87"/>
+      <c r="D169" s="83"/>
       <c r="E169" s="42" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F169" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G169" s="33"/>
       <c r="H169" s="33" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I169" s="56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J169" s="56"/>
       <c r="K169" s="37" t="s">
@@ -16517,7 +16603,7 @@
     </row>
     <row r="170" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A170" s="31" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B170" s="41" t="s">
         <v>217</v>
@@ -16525,19 +16611,19 @@
       <c r="C170" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D170" s="87"/>
+      <c r="D170" s="83"/>
       <c r="E170" s="42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F170" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I170" s="56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J170" s="56"/>
       <c r="K170" s="37" t="s">
@@ -16546,7 +16632,7 @@
     </row>
     <row r="171" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B171" s="41" t="s">
         <v>217</v>
@@ -16554,19 +16640,19 @@
       <c r="C171" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="88"/>
+      <c r="D171" s="84"/>
       <c r="E171" s="42" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F171" s="33" t="s">
         <v>430</v>
       </c>
       <c r="G171" s="33"/>
       <c r="H171" s="33" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I171" s="56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J171" s="56"/>
       <c r="K171" s="37" t="s">
@@ -16575,6 +16661,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="F4:F38"/>
+    <mergeCell ref="D4:D47"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C69:K69"/>
     <mergeCell ref="D163:D171"/>
     <mergeCell ref="D80:D88"/>
     <mergeCell ref="D90:D111"/>
@@ -16586,17 +16683,6 @@
     <mergeCell ref="C146:K146"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C89:K89"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="F4:F38"/>
-    <mergeCell ref="D4:D47"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D60:D68"/>
-    <mergeCell ref="D70:D78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Требования!R11C1" display="T-4"/>
@@ -16766,10 +16852,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16923,13 +17009,13 @@
         <v>804</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>439</v>
+        <v>1366</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>437</v>
@@ -16962,7 +17048,7 @@
         <v>810</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>451</v>
+        <v>1367</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
@@ -16992,7 +17078,7 @@
         <v>810</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>452</v>
+        <v>1368</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>97</v>
@@ -17010,7 +17096,7 @@
     </row>
     <row r="10" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>815</v>
@@ -17022,10 +17108,10 @@
         <v>810</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>818</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>807</v>
@@ -17040,56 +17126,56 @@
     </row>
     <row r="11" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>826</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>827</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>217</v>
+      <c r="H11" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>831</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>832</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>834</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>217</v>
+      <c r="H12" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="50" t="s">
@@ -17098,28 +17184,28 @@
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>839</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>217</v>
+      <c r="H13" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="50" t="s">
@@ -17128,28 +17214,28 @@
     </row>
     <row r="14" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>217</v>
+      <c r="H14" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="50" t="s">
@@ -17158,28 +17244,28 @@
     </row>
     <row r="15" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>847</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>848</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>217</v>
+      <c r="H15" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="50" t="s">
@@ -17188,10 +17274,10 @@
     </row>
     <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="42" t="s">
@@ -17201,10 +17287,10 @@
         <v>456</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>217</v>
@@ -17216,16 +17302,16 @@
     </row>
     <row r="17" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>430</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>457</v>
@@ -17234,7 +17320,7 @@
         <v>55</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>217</v>
@@ -17246,23 +17332,23 @@
     </row>
     <row r="18" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>864</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>865</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>860</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>874</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>861</v>
-      </c>
       <c r="G18" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>217</v>
@@ -17274,23 +17360,23 @@
     </row>
     <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>217</v>
@@ -17302,23 +17388,23 @@
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>870</v>
       </c>
-      <c r="E20" s="45" t="s">
-        <v>874</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>871</v>
-      </c>
       <c r="G20" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>217</v>
@@ -17330,23 +17416,23 @@
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="42" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>217</v>
@@ -17358,14 +17444,14 @@
     </row>
     <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="34" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>495</v>
@@ -17373,11 +17459,11 @@
       <c r="F22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>217</v>
+      <c r="G22" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="50" t="s">
@@ -17386,14 +17472,14 @@
     </row>
     <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>495</v>
@@ -17401,36 +17487,36 @@
       <c r="F23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>217</v>
+      <c r="G23" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>792</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="51" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="34" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>217</v>
@@ -17442,14 +17528,14 @@
     </row>
     <row r="25" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="34" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>85</v>
@@ -17458,26 +17544,26 @@
         <v>620</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="50" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E26" s="46" t="s">
         <v>85</v>
@@ -17486,82 +17572,82 @@
         <v>622</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="50" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="50" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>85</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="50" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>85</v>
@@ -17577,19 +17663,19 @@
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="50" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>85</v>
@@ -17605,19 +17691,19 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="50" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>85</v>
@@ -17633,22 +17719,22 @@
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="50" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F32" s="46" t="s">
         <v>88</v>
@@ -17661,19 +17747,19 @@
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="51" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>85</v>
@@ -17689,131 +17775,131 @@
       </c>
       <c r="I33" s="26"/>
       <c r="J33" s="50" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F34" s="46" t="s">
         <v>88</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="50" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F35" s="46" t="s">
         <v>88</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="50" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="50" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F37" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="50" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>85</v>
@@ -17829,19 +17915,19 @@
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="50" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="34" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E39" s="46" t="s">
         <v>85</v>
@@ -17857,159 +17943,159 @@
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="50" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="50" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="50" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="E42" s="46" t="s">
         <v>926</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>927</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="50" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="50" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>928</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>929</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="50" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="34" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E45" s="46" t="s">
         <v>621</v>
@@ -18018,26 +18104,26 @@
         <v>94</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I45" s="26"/>
       <c r="J45" s="50" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="34" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>621</v>
@@ -18046,26 +18132,26 @@
         <v>94</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E47" s="46" t="s">
         <v>621</v>
@@ -18074,26 +18160,26 @@
         <v>94</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I47" s="26"/>
       <c r="J47" s="50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E48" s="46" t="s">
         <v>621</v>
@@ -18102,26 +18188,26 @@
         <v>94</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="34" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E49" s="46" t="s">
         <v>621</v>
@@ -18130,26 +18216,26 @@
         <v>94</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I49" s="26"/>
       <c r="J49" s="50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="34" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>621</v>
@@ -18158,26 +18244,26 @@
         <v>94</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="50" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="34" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>621</v>
@@ -18186,26 +18272,26 @@
         <v>94</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="50" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="34" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>621</v>
@@ -18214,26 +18300,26 @@
         <v>94</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="50" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="34" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>621</v>
@@ -18242,26 +18328,26 @@
         <v>94</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="50" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>621</v>
@@ -18270,26 +18356,26 @@
         <v>94</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I54" s="26"/>
       <c r="J54" s="50" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>621</v>
@@ -18298,26 +18384,26 @@
         <v>94</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="50" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>621</v>
@@ -18326,26 +18412,26 @@
         <v>94</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>621</v>
@@ -18354,26 +18440,26 @@
         <v>94</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I57" s="26"/>
       <c r="J57" s="50" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>621</v>
@@ -18382,26 +18468,26 @@
         <v>94</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I58" s="26"/>
       <c r="J58" s="50" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>621</v>
@@ -18410,26 +18496,26 @@
         <v>94</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="50" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>621</v>
@@ -18438,26 +18524,26 @@
         <v>94</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I60" s="26"/>
       <c r="J60" s="50" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>621</v>
@@ -18466,26 +18552,26 @@
         <v>94</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="50" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="34" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>621</v>
@@ -18494,26 +18580,26 @@
         <v>94</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="50" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>621</v>
@@ -18522,26 +18608,26 @@
         <v>94</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I63" s="26"/>
       <c r="J63" s="50" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E64" s="46" t="s">
         <v>621</v>
@@ -18550,26 +18636,26 @@
         <v>94</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I64" s="26"/>
       <c r="J64" s="50" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>621</v>
@@ -18578,26 +18664,26 @@
         <v>94</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I65" s="26"/>
       <c r="J65" s="50" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="34" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>621</v>
@@ -18606,26 +18692,26 @@
         <v>94</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I66" s="26"/>
       <c r="J66" s="50" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="34" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>621</v>
@@ -18634,26 +18720,26 @@
         <v>94</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="50" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>621</v>
@@ -18662,26 +18748,26 @@
         <v>94</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H68" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I68" s="26"/>
       <c r="J68" s="50" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="34" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>621</v>
@@ -18690,26 +18776,26 @@
         <v>94</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I69" s="26"/>
       <c r="J69" s="50" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>621</v>
@@ -18718,26 +18804,26 @@
         <v>94</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E71" s="46" t="s">
         <v>621</v>
@@ -18746,26 +18832,26 @@
         <v>94</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I71" s="26"/>
       <c r="J71" s="50" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="34" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E72" s="46" t="s">
         <v>621</v>
@@ -18774,26 +18860,26 @@
         <v>94</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="50" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="34" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>621</v>
@@ -18802,26 +18888,26 @@
         <v>94</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I73" s="26"/>
       <c r="J73" s="50" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="34" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E74" s="46" t="s">
         <v>621</v>
@@ -18830,26 +18916,26 @@
         <v>94</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H74" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I74" s="26"/>
       <c r="J74" s="50" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="34" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>621</v>
@@ -18858,26 +18944,26 @@
         <v>94</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H75" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I75" s="26"/>
       <c r="J75" s="50" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E76" s="46" t="s">
         <v>621</v>
@@ -18886,26 +18972,26 @@
         <v>94</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I76" s="26"/>
       <c r="J76" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="34" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E77" s="46" t="s">
         <v>621</v>
@@ -18914,26 +19000,26 @@
         <v>94</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H77" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="50" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="34" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E78" s="46" t="s">
         <v>621</v>
@@ -18942,26 +19028,26 @@
         <v>94</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H78" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I78" s="26"/>
       <c r="J78" s="50" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E79" s="46" t="s">
         <v>621</v>
@@ -18970,26 +19056,26 @@
         <v>94</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H79" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I79" s="26"/>
       <c r="J79" s="50" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>621</v>
@@ -18998,26 +19084,26 @@
         <v>94</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H80" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="50" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C81" s="26"/>
       <c r="D81" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>621</v>
@@ -19026,26 +19112,26 @@
         <v>94</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H81" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I81" s="26"/>
       <c r="J81" s="50" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E82" s="46" t="s">
         <v>621</v>
@@ -19054,26 +19140,26 @@
         <v>94</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H82" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="50" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C83" s="26"/>
       <c r="D83" s="34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E83" s="46" t="s">
         <v>621</v>
@@ -19082,26 +19168,26 @@
         <v>94</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="50" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E84" s="46" t="s">
         <v>621</v>
@@ -19110,26 +19196,26 @@
         <v>94</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H84" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="50" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="34" t="s">
-        <v>1018</v>
+        <v>1365</v>
       </c>
       <c r="E85" s="46" t="s">
         <v>621</v>
@@ -19138,15 +19224,41 @@
         <v>94</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H85" s="26" t="s">
         <v>217</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="50" t="s">
-        <v>1194</v>
-      </c>
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" s="34"/>
+      <c r="E86" s="46" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="I86" s="26"/>
+      <c r="J86" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/WebForm_Testing.xlsx
+++ b/WebForm_Testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1373">
   <si>
     <t>ID</t>
   </si>
@@ -6230,6 +6230,9 @@
   </si>
   <si>
     <t>Текст на кнопке"Submit" не выровнен по середине</t>
+  </si>
+  <si>
+    <t>BR-84</t>
   </si>
 </sst>
 </file>
@@ -6819,15 +6822,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6839,6 +6833,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11437,13 +11440,13 @@
       <c r="C4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="83" t="s">
         <v>430</v>
       </c>
       <c r="G4" s="33"/>
@@ -11470,11 +11473,11 @@
       <c r="C5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
         <v>434</v>
@@ -11495,11 +11498,11 @@
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33" t="s">
         <v>439</v>
@@ -11524,11 +11527,11 @@
       <c r="C7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33" t="s">
         <v>441</v>
@@ -11553,11 +11556,11 @@
       <c r="C8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33" t="s">
         <v>634</v>
@@ -11582,11 +11585,11 @@
       <c r="C9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33" t="s">
         <v>653</v>
@@ -11611,11 +11614,11 @@
       <c r="C10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="F10" s="87"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
         <v>654</v>
@@ -11640,11 +11643,11 @@
       <c r="C11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="42" t="s">
         <v>819</v>
       </c>
-      <c r="F11" s="87"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
         <v>820</v>
@@ -11669,11 +11672,11 @@
       <c r="C12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="33"/>
       <c r="H12" s="42" t="s">
         <v>443</v>
@@ -11698,11 +11701,11 @@
       <c r="C13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="33"/>
       <c r="H13" s="42" t="s">
         <v>444</v>
@@ -11727,11 +11730,11 @@
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="42" t="s">
         <v>1235</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="33"/>
       <c r="H14" s="42" t="s">
         <v>446</v>
@@ -11756,11 +11759,11 @@
       <c r="C15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="42" t="s">
         <v>1234</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="33"/>
       <c r="H15" s="42" t="s">
         <v>448</v>
@@ -11785,11 +11788,11 @@
       <c r="C16" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="33"/>
       <c r="H16" s="42" t="s">
         <v>454</v>
@@ -11814,11 +11817,11 @@
       <c r="C17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="F17" s="87"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="33"/>
       <c r="H17" s="42" t="s">
         <v>1236</v>
@@ -11843,11 +11846,11 @@
       <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="42" t="s">
         <v>1239</v>
       </c>
-      <c r="F18" s="87"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="33" t="s">
         <v>1233</v>
       </c>
@@ -11874,11 +11877,11 @@
       <c r="C19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="42" t="s">
         <v>1238</v>
       </c>
-      <c r="F19" s="87"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="33" t="s">
         <v>1237</v>
       </c>
@@ -11905,11 +11908,11 @@
       <c r="C20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="42" t="s">
         <v>1243</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="33" t="s">
         <v>1242</v>
       </c>
@@ -11936,11 +11939,11 @@
       <c r="C21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="83"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="42" t="s">
         <v>1246</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="33" t="s">
         <v>1245</v>
       </c>
@@ -11967,11 +11970,11 @@
       <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="F22" s="87"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="33" t="s">
         <v>1259</v>
       </c>
@@ -11998,11 +12001,11 @@
       <c r="C23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="F23" s="87"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="33" t="s">
         <v>1260</v>
       </c>
@@ -12029,11 +12032,11 @@
       <c r="C24" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="F24" s="87"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="33" t="s">
         <v>1261</v>
       </c>
@@ -12060,11 +12063,11 @@
       <c r="C25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="F25" s="87"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="33" t="s">
         <v>1251</v>
       </c>
@@ -12091,11 +12094,11 @@
       <c r="C26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F26" s="87"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="33" t="s">
         <v>1253</v>
       </c>
@@ -12122,11 +12125,11 @@
       <c r="C27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F27" s="87"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="33" t="s">
         <v>1258</v>
       </c>
@@ -12153,11 +12156,11 @@
       <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="83"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="F28" s="87"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="33" t="s">
         <v>1255</v>
       </c>
@@ -12184,11 +12187,11 @@
       <c r="C29" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="F29" s="87"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="33" t="s">
         <v>1254</v>
       </c>
@@ -12215,11 +12218,11 @@
       <c r="C30" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="87"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="33" t="s">
         <v>463</v>
       </c>
@@ -12246,11 +12249,11 @@
       <c r="C31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="83"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="F31" s="87"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="33" t="s">
         <v>1257</v>
       </c>
@@ -12277,11 +12280,11 @@
       <c r="C32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="83"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="33" t="s">
         <v>1256</v>
       </c>
@@ -12308,11 +12311,11 @@
       <c r="C33" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="83"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="F33" s="87"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="33" t="s">
         <v>1255</v>
       </c>
@@ -12339,11 +12342,11 @@
       <c r="C34" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="83"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F34" s="87"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="33" t="s">
         <v>1254</v>
       </c>
@@ -12370,11 +12373,11 @@
       <c r="C35" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="F35" s="87"/>
+      <c r="F35" s="84"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33" t="s">
         <v>475</v>
@@ -12399,11 +12402,11 @@
       <c r="C36" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="F36" s="87"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33" t="s">
         <v>478</v>
@@ -12428,11 +12431,11 @@
       <c r="C37" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="83"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="F37" s="87"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33" t="s">
         <v>480</v>
@@ -12457,11 +12460,11 @@
       <c r="C38" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="F38" s="88"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33" t="s">
         <v>482</v>
@@ -12486,7 +12489,7 @@
       <c r="C39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="83"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="42" t="s">
         <v>484</v>
       </c>
@@ -12517,7 +12520,7 @@
       <c r="C40" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="83"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="42" t="s">
         <v>486</v>
       </c>
@@ -12548,7 +12551,7 @@
       <c r="C41" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="83"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="42" t="s">
         <v>84</v>
       </c>
@@ -12579,7 +12582,7 @@
       <c r="C42" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="83"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="42" t="s">
         <v>93</v>
       </c>
@@ -12610,7 +12613,7 @@
       <c r="C43" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="83"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="42" t="s">
         <v>109</v>
       </c>
@@ -12641,7 +12644,7 @@
       <c r="C44" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="83"/>
+      <c r="D44" s="87"/>
       <c r="E44" s="31" t="s">
         <v>112</v>
       </c>
@@ -12672,7 +12675,7 @@
       <c r="C45" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="83"/>
+      <c r="D45" s="87"/>
       <c r="E45" s="42" t="s">
         <v>499</v>
       </c>
@@ -12703,7 +12706,7 @@
       <c r="C46" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="83"/>
+      <c r="D46" s="87"/>
       <c r="E46" s="54" t="s">
         <v>500</v>
       </c>
@@ -12734,7 +12737,7 @@
       <c r="C47" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="84"/>
+      <c r="D47" s="88"/>
       <c r="E47" s="54" t="s">
         <v>502</v>
       </c>
@@ -12758,17 +12761,17 @@
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="82" t="s">
         <v>642</v>
       </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
     </row>
     <row r="49" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
@@ -12780,7 +12783,7 @@
       <c r="C49" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="82" t="s">
+      <c r="D49" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="42" t="s">
@@ -12815,7 +12818,7 @@
       <c r="C50" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="83"/>
+      <c r="D50" s="87"/>
       <c r="E50" s="42" t="s">
         <v>651</v>
       </c>
@@ -12848,7 +12851,7 @@
       <c r="C51" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="83"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="42" t="s">
         <v>650</v>
       </c>
@@ -12881,7 +12884,7 @@
       <c r="C52" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="83"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="42" t="s">
         <v>649</v>
       </c>
@@ -12914,7 +12917,7 @@
       <c r="C53" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="83"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="42" t="s">
         <v>648</v>
       </c>
@@ -12947,7 +12950,7 @@
       <c r="C54" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="83"/>
+      <c r="D54" s="87"/>
       <c r="E54" s="42" t="s">
         <v>647</v>
       </c>
@@ -12980,7 +12983,7 @@
       <c r="C55" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="83"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="42" t="s">
         <v>646</v>
       </c>
@@ -13013,7 +13016,7 @@
       <c r="C56" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="83"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="42" t="s">
         <v>645</v>
       </c>
@@ -13046,7 +13049,7 @@
       <c r="C57" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="83"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="42" t="s">
         <v>796</v>
       </c>
@@ -13079,7 +13082,7 @@
       <c r="C58" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="84"/>
+      <c r="D58" s="88"/>
       <c r="E58" s="42" t="s">
         <v>644</v>
       </c>
@@ -13105,17 +13108,17 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="82" t="s">
         <v>643</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
@@ -13127,7 +13130,7 @@
       <c r="C60" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="42" t="s">
@@ -13160,7 +13163,7 @@
       <c r="C61" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="83"/>
+      <c r="D61" s="87"/>
       <c r="E61" s="42" t="s">
         <v>632</v>
       </c>
@@ -13193,7 +13196,7 @@
       <c r="C62" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="83"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="42" t="s">
         <v>633</v>
       </c>
@@ -13226,7 +13229,7 @@
       <c r="C63" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="83"/>
+      <c r="D63" s="87"/>
       <c r="E63" s="42" t="s">
         <v>635</v>
       </c>
@@ -13259,7 +13262,7 @@
       <c r="C64" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="83"/>
+      <c r="D64" s="87"/>
       <c r="E64" s="42" t="s">
         <v>636</v>
       </c>
@@ -13292,7 +13295,7 @@
       <c r="C65" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="83"/>
+      <c r="D65" s="87"/>
       <c r="E65" s="42" t="s">
         <v>638</v>
       </c>
@@ -13325,7 +13328,7 @@
       <c r="C66" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="83"/>
+      <c r="D66" s="87"/>
       <c r="E66" s="42" t="s">
         <v>797</v>
       </c>
@@ -13358,7 +13361,7 @@
       <c r="C67" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="83"/>
+      <c r="D67" s="87"/>
       <c r="E67" s="42" t="s">
         <v>1198</v>
       </c>
@@ -13391,7 +13394,7 @@
       <c r="C68" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="84"/>
+      <c r="D68" s="88"/>
       <c r="E68" s="42" t="s">
         <v>798</v>
       </c>
@@ -13417,17 +13420,17 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="82" t="s">
         <v>658</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
     </row>
     <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
@@ -13439,7 +13442,7 @@
       <c r="C70" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="42" t="s">
@@ -13474,7 +13477,7 @@
       <c r="C71" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="87"/>
       <c r="E71" s="42" t="s">
         <v>661</v>
       </c>
@@ -13507,7 +13510,7 @@
       <c r="C72" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="83"/>
+      <c r="D72" s="87"/>
       <c r="E72" s="42" t="s">
         <v>663</v>
       </c>
@@ -13540,7 +13543,7 @@
       <c r="C73" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="83"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="42" t="s">
         <v>665</v>
       </c>
@@ -13573,7 +13576,7 @@
       <c r="C74" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="83"/>
+      <c r="D74" s="87"/>
       <c r="E74" s="42" t="s">
         <v>667</v>
       </c>
@@ -13606,7 +13609,7 @@
       <c r="C75" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="83"/>
+      <c r="D75" s="87"/>
       <c r="E75" s="42" t="s">
         <v>671</v>
       </c>
@@ -13639,7 +13642,7 @@
       <c r="C76" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="83"/>
+      <c r="D76" s="87"/>
       <c r="E76" s="42" t="s">
         <v>672</v>
       </c>
@@ -13672,7 +13675,7 @@
       <c r="C77" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="83"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="42" t="s">
         <v>800</v>
       </c>
@@ -13705,7 +13708,7 @@
       <c r="C78" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="84"/>
+      <c r="D78" s="88"/>
       <c r="E78" s="42" t="s">
         <v>678</v>
       </c>
@@ -13731,17 +13734,17 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="82" t="s">
         <v>657</v>
       </c>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
     </row>
     <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
@@ -13753,7 +13756,7 @@
       <c r="C80" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="82" t="s">
+      <c r="D80" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="42" t="s">
@@ -13788,7 +13791,7 @@
       <c r="C81" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="83"/>
+      <c r="D81" s="87"/>
       <c r="E81" s="42" t="s">
         <v>684</v>
       </c>
@@ -13819,7 +13822,7 @@
       <c r="C82" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="87"/>
       <c r="E82" s="42" t="s">
         <v>685</v>
       </c>
@@ -13852,7 +13855,7 @@
       <c r="C83" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="83"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="42" t="s">
         <v>688</v>
       </c>
@@ -13885,7 +13888,7 @@
       <c r="C84" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="83"/>
+      <c r="D84" s="87"/>
       <c r="E84" s="42" t="s">
         <v>689</v>
       </c>
@@ -13918,7 +13921,7 @@
       <c r="C85" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="83"/>
+      <c r="D85" s="87"/>
       <c r="E85" s="42" t="s">
         <v>691</v>
       </c>
@@ -13951,7 +13954,7 @@
       <c r="C86" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="83"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="42" t="s">
         <v>693</v>
       </c>
@@ -13984,7 +13987,7 @@
       <c r="C87" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="83"/>
+      <c r="D87" s="87"/>
       <c r="E87" s="42" t="s">
         <v>696</v>
       </c>
@@ -14017,7 +14020,7 @@
       <c r="C88" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="88"/>
       <c r="E88" s="42" t="s">
         <v>698</v>
       </c>
@@ -14043,17 +14046,17 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="85" t="s">
+      <c r="C89" s="82" t="s">
         <v>705</v>
       </c>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
     </row>
     <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
@@ -14065,7 +14068,7 @@
       <c r="C90" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D90" s="82" t="s">
+      <c r="D90" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="42" t="s">
@@ -14100,7 +14103,7 @@
       <c r="C91" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="83"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="42" t="s">
         <v>706</v>
       </c>
@@ -14133,7 +14136,7 @@
       <c r="C92" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="83"/>
+      <c r="D92" s="87"/>
       <c r="E92" s="42" t="s">
         <v>708</v>
       </c>
@@ -14166,7 +14169,7 @@
       <c r="C93" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="87"/>
       <c r="E93" s="42" t="s">
         <v>708</v>
       </c>
@@ -14199,7 +14202,7 @@
       <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="83"/>
+      <c r="D94" s="87"/>
       <c r="E94" s="42" t="s">
         <v>709</v>
       </c>
@@ -14232,7 +14235,7 @@
       <c r="C95" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="83"/>
+      <c r="D95" s="87"/>
       <c r="E95" s="42" t="s">
         <v>710</v>
       </c>
@@ -14265,7 +14268,7 @@
       <c r="C96" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="83"/>
+      <c r="D96" s="87"/>
       <c r="E96" s="42" t="s">
         <v>711</v>
       </c>
@@ -14298,7 +14301,7 @@
       <c r="C97" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="83"/>
+      <c r="D97" s="87"/>
       <c r="E97" s="42" t="s">
         <v>712</v>
       </c>
@@ -14331,7 +14334,7 @@
       <c r="C98" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="83"/>
+      <c r="D98" s="87"/>
       <c r="E98" s="42" t="s">
         <v>713</v>
       </c>
@@ -14364,7 +14367,7 @@
       <c r="C99" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D99" s="83"/>
+      <c r="D99" s="87"/>
       <c r="E99" s="42" t="s">
         <v>716</v>
       </c>
@@ -14397,7 +14400,7 @@
       <c r="C100" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D100" s="83"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="42" t="s">
         <v>717</v>
       </c>
@@ -14430,7 +14433,7 @@
       <c r="C101" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D101" s="83"/>
+      <c r="D101" s="87"/>
       <c r="E101" s="42" t="s">
         <v>718</v>
       </c>
@@ -14463,7 +14466,7 @@
       <c r="C102" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="83"/>
+      <c r="D102" s="87"/>
       <c r="E102" s="42" t="s">
         <v>719</v>
       </c>
@@ -14496,7 +14499,7 @@
       <c r="C103" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D103" s="83"/>
+      <c r="D103" s="87"/>
       <c r="E103" s="42" t="s">
         <v>720</v>
       </c>
@@ -14529,7 +14532,7 @@
       <c r="C104" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="87"/>
       <c r="E104" s="42" t="s">
         <v>721</v>
       </c>
@@ -14562,7 +14565,7 @@
       <c r="C105" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="83"/>
+      <c r="D105" s="87"/>
       <c r="E105" s="42" t="s">
         <v>722</v>
       </c>
@@ -14595,7 +14598,7 @@
       <c r="C106" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="83"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="42" t="s">
         <v>715</v>
       </c>
@@ -14628,7 +14631,7 @@
       <c r="C107" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="83"/>
+      <c r="D107" s="87"/>
       <c r="E107" s="42" t="s">
         <v>723</v>
       </c>
@@ -14661,7 +14664,7 @@
       <c r="C108" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D108" s="83"/>
+      <c r="D108" s="87"/>
       <c r="E108" s="42" t="s">
         <v>724</v>
       </c>
@@ -14694,7 +14697,7 @@
       <c r="C109" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D109" s="83"/>
+      <c r="D109" s="87"/>
       <c r="E109" s="42" t="s">
         <v>725</v>
       </c>
@@ -14727,7 +14730,7 @@
       <c r="C110" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="83"/>
+      <c r="D110" s="87"/>
       <c r="E110" s="42" t="s">
         <v>726</v>
       </c>
@@ -14760,7 +14763,7 @@
       <c r="C111" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="84"/>
+      <c r="D111" s="88"/>
       <c r="E111" s="42" t="s">
         <v>750</v>
       </c>
@@ -14786,17 +14789,17 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="85" t="s">
+      <c r="C112" s="82" t="s">
         <v>727</v>
       </c>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="85"/>
-      <c r="K112" s="85"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
     </row>
     <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
@@ -14808,7 +14811,7 @@
       <c r="C113" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D113" s="82" t="s">
+      <c r="D113" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E113" s="42" t="s">
@@ -14843,7 +14846,7 @@
       <c r="C114" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="83"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="42" t="s">
         <v>729</v>
       </c>
@@ -14876,7 +14879,7 @@
       <c r="C115" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="42" t="s">
         <v>728</v>
       </c>
@@ -14909,7 +14912,7 @@
       <c r="C116" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D116" s="83"/>
+      <c r="D116" s="87"/>
       <c r="E116" s="42" t="s">
         <v>730</v>
       </c>
@@ -14942,7 +14945,7 @@
       <c r="C117" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D117" s="83"/>
+      <c r="D117" s="87"/>
       <c r="E117" s="42" t="s">
         <v>731</v>
       </c>
@@ -14975,7 +14978,7 @@
       <c r="C118" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D118" s="83"/>
+      <c r="D118" s="87"/>
       <c r="E118" s="42" t="s">
         <v>732</v>
       </c>
@@ -15008,7 +15011,7 @@
       <c r="C119" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D119" s="83"/>
+      <c r="D119" s="87"/>
       <c r="E119" s="42" t="s">
         <v>733</v>
       </c>
@@ -15041,7 +15044,7 @@
       <c r="C120" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D120" s="83"/>
+      <c r="D120" s="87"/>
       <c r="E120" s="42" t="s">
         <v>949</v>
       </c>
@@ -15074,7 +15077,7 @@
       <c r="C121" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="83"/>
+      <c r="D121" s="87"/>
       <c r="E121" s="42" t="s">
         <v>952</v>
       </c>
@@ -15107,7 +15110,7 @@
       <c r="C122" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="83"/>
+      <c r="D122" s="87"/>
       <c r="E122" s="42" t="s">
         <v>734</v>
       </c>
@@ -15140,7 +15143,7 @@
       <c r="C123" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D123" s="83"/>
+      <c r="D123" s="87"/>
       <c r="E123" s="42" t="s">
         <v>735</v>
       </c>
@@ -15173,7 +15176,7 @@
       <c r="C124" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D124" s="83"/>
+      <c r="D124" s="87"/>
       <c r="E124" s="42" t="s">
         <v>736</v>
       </c>
@@ -15206,7 +15209,7 @@
       <c r="C125" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D125" s="83"/>
+      <c r="D125" s="87"/>
       <c r="E125" s="42" t="s">
         <v>739</v>
       </c>
@@ -15239,7 +15242,7 @@
       <c r="C126" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="87"/>
       <c r="E126" s="42" t="s">
         <v>740</v>
       </c>
@@ -15272,7 +15275,7 @@
       <c r="C127" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D127" s="83"/>
+      <c r="D127" s="87"/>
       <c r="E127" s="42" t="s">
         <v>741</v>
       </c>
@@ -15305,7 +15308,7 @@
       <c r="C128" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="83"/>
+      <c r="D128" s="87"/>
       <c r="E128" s="42" t="s">
         <v>742</v>
       </c>
@@ -15338,7 +15341,7 @@
       <c r="C129" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D129" s="83"/>
+      <c r="D129" s="87"/>
       <c r="E129" s="42" t="s">
         <v>966</v>
       </c>
@@ -15371,7 +15374,7 @@
       <c r="C130" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="83"/>
+      <c r="D130" s="87"/>
       <c r="E130" s="42" t="s">
         <v>743</v>
       </c>
@@ -15404,7 +15407,7 @@
       <c r="C131" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D131" s="83"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="42" t="s">
         <v>746</v>
       </c>
@@ -15437,7 +15440,7 @@
       <c r="C132" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D132" s="83"/>
+      <c r="D132" s="87"/>
       <c r="E132" s="42" t="s">
         <v>745</v>
       </c>
@@ -15470,7 +15473,7 @@
       <c r="C133" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D133" s="83"/>
+      <c r="D133" s="87"/>
       <c r="E133" s="42" t="s">
         <v>744</v>
       </c>
@@ -15503,7 +15506,7 @@
       <c r="C134" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D134" s="83"/>
+      <c r="D134" s="87"/>
       <c r="E134" s="42" t="s">
         <v>981</v>
       </c>
@@ -15536,7 +15539,7 @@
       <c r="C135" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D135" s="83"/>
+      <c r="D135" s="87"/>
       <c r="E135" s="42" t="s">
         <v>747</v>
       </c>
@@ -15569,7 +15572,7 @@
       <c r="C136" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D136" s="83"/>
+      <c r="D136" s="87"/>
       <c r="E136" s="42" t="s">
         <v>982</v>
       </c>
@@ -15602,7 +15605,7 @@
       <c r="C137" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="87"/>
       <c r="E137" s="42" t="s">
         <v>986</v>
       </c>
@@ -15635,7 +15638,7 @@
       <c r="C138" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="83"/>
+      <c r="D138" s="87"/>
       <c r="E138" s="42" t="s">
         <v>748</v>
       </c>
@@ -15668,7 +15671,7 @@
       <c r="C139" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="84"/>
+      <c r="D139" s="88"/>
       <c r="E139" s="42" t="s">
         <v>749</v>
       </c>
@@ -15694,17 +15697,17 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
-      <c r="C140" s="85" t="s">
+      <c r="C140" s="82" t="s">
         <v>751</v>
       </c>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="85"/>
-      <c r="I140" s="85"/>
-      <c r="J140" s="85"/>
-      <c r="K140" s="85"/>
+      <c r="D140" s="82"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
+      <c r="K140" s="82"/>
     </row>
     <row r="141" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
@@ -15716,7 +15719,7 @@
       <c r="C141" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D141" s="82" t="s">
+      <c r="D141" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E141" s="42" t="s">
@@ -15751,7 +15754,7 @@
       <c r="C142" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D142" s="83"/>
+      <c r="D142" s="87"/>
       <c r="E142" s="42" t="s">
         <v>752</v>
       </c>
@@ -15784,7 +15787,7 @@
       <c r="C143" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D143" s="83"/>
+      <c r="D143" s="87"/>
       <c r="E143" s="42" t="s">
         <v>754</v>
       </c>
@@ -15817,7 +15820,7 @@
       <c r="C144" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D144" s="83"/>
+      <c r="D144" s="87"/>
       <c r="E144" s="42" t="s">
         <v>755</v>
       </c>
@@ -15850,7 +15853,7 @@
       <c r="C145" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D145" s="84"/>
+      <c r="D145" s="88"/>
       <c r="E145" s="42" t="s">
         <v>756</v>
       </c>
@@ -15876,17 +15879,17 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="85" t="s">
+      <c r="C146" s="82" t="s">
         <v>757</v>
       </c>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="85"/>
-      <c r="I146" s="85"/>
-      <c r="J146" s="85"/>
-      <c r="K146" s="85"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="82"/>
+      <c r="F146" s="82"/>
+      <c r="G146" s="82"/>
+      <c r="H146" s="82"/>
+      <c r="I146" s="82"/>
+      <c r="J146" s="82"/>
+      <c r="K146" s="82"/>
     </row>
     <row r="147" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
@@ -15898,7 +15901,7 @@
       <c r="C147" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D147" s="82" t="s">
+      <c r="D147" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E147" s="42" t="s">
@@ -15933,7 +15936,7 @@
       <c r="C148" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="87"/>
       <c r="E148" s="42" t="s">
         <v>761</v>
       </c>
@@ -15966,7 +15969,7 @@
       <c r="C149" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D149" s="83"/>
+      <c r="D149" s="87"/>
       <c r="E149" s="42" t="s">
         <v>763</v>
       </c>
@@ -15999,7 +16002,7 @@
       <c r="C150" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="83"/>
+      <c r="D150" s="87"/>
       <c r="E150" s="42" t="s">
         <v>764</v>
       </c>
@@ -16030,7 +16033,7 @@
       <c r="C151" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D151" s="83"/>
+      <c r="D151" s="87"/>
       <c r="E151" s="42" t="s">
         <v>765</v>
       </c>
@@ -16063,7 +16066,7 @@
       <c r="C152" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D152" s="83"/>
+      <c r="D152" s="87"/>
       <c r="E152" s="42" t="s">
         <v>766</v>
       </c>
@@ -16096,7 +16099,7 @@
       <c r="C153" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D153" s="83"/>
+      <c r="D153" s="87"/>
       <c r="E153" s="42" t="s">
         <v>767</v>
       </c>
@@ -16129,7 +16132,7 @@
       <c r="C154" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D154" s="83"/>
+      <c r="D154" s="87"/>
       <c r="E154" s="42" t="s">
         <v>768</v>
       </c>
@@ -16162,7 +16165,7 @@
       <c r="C155" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D155" s="83"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="42" t="s">
         <v>769</v>
       </c>
@@ -16195,7 +16198,7 @@
       <c r="C156" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D156" s="83"/>
+      <c r="D156" s="87"/>
       <c r="E156" s="42" t="s">
         <v>1009</v>
       </c>
@@ -16228,7 +16231,7 @@
       <c r="C157" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D157" s="83"/>
+      <c r="D157" s="87"/>
       <c r="E157" s="42" t="s">
         <v>1194</v>
       </c>
@@ -16261,7 +16264,7 @@
       <c r="C158" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D158" s="83"/>
+      <c r="D158" s="87"/>
       <c r="E158" s="42" t="s">
         <v>770</v>
       </c>
@@ -16294,7 +16297,7 @@
       <c r="C159" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="87"/>
       <c r="E159" s="42" t="s">
         <v>771</v>
       </c>
@@ -16327,7 +16330,7 @@
       <c r="C160" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D160" s="83"/>
+      <c r="D160" s="87"/>
       <c r="E160" s="42" t="s">
         <v>773</v>
       </c>
@@ -16360,7 +16363,7 @@
       <c r="C161" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D161" s="84"/>
+      <c r="D161" s="88"/>
       <c r="E161" s="42" t="s">
         <v>774</v>
       </c>
@@ -16384,17 +16387,17 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="82" t="s">
         <v>1199</v>
       </c>
-      <c r="D162" s="85"/>
-      <c r="E162" s="85"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="85"/>
-      <c r="K162" s="85"/>
+      <c r="D162" s="82"/>
+      <c r="E162" s="82"/>
+      <c r="F162" s="82"/>
+      <c r="G162" s="82"/>
+      <c r="H162" s="82"/>
+      <c r="I162" s="82"/>
+      <c r="J162" s="82"/>
+      <c r="K162" s="82"/>
     </row>
     <row r="163" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
@@ -16406,7 +16409,7 @@
       <c r="C163" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="82" t="s">
+      <c r="D163" s="86" t="s">
         <v>31</v>
       </c>
       <c r="E163" s="42" t="s">
@@ -16437,7 +16440,7 @@
       <c r="C164" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D164" s="83"/>
+      <c r="D164" s="87"/>
       <c r="E164" s="42" t="s">
         <v>1203</v>
       </c>
@@ -16466,7 +16469,7 @@
       <c r="C165" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D165" s="83"/>
+      <c r="D165" s="87"/>
       <c r="E165" s="42" t="s">
         <v>1207</v>
       </c>
@@ -16495,7 +16498,7 @@
       <c r="C166" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D166" s="83"/>
+      <c r="D166" s="87"/>
       <c r="E166" s="42" t="s">
         <v>1210</v>
       </c>
@@ -16524,7 +16527,7 @@
       <c r="C167" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D167" s="83"/>
+      <c r="D167" s="87"/>
       <c r="E167" s="42" t="s">
         <v>1213</v>
       </c>
@@ -16553,7 +16556,7 @@
       <c r="C168" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D168" s="83"/>
+      <c r="D168" s="87"/>
       <c r="E168" s="42" t="s">
         <v>1215</v>
       </c>
@@ -16582,7 +16585,7 @@
       <c r="C169" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D169" s="83"/>
+      <c r="D169" s="87"/>
       <c r="E169" s="42" t="s">
         <v>1219</v>
       </c>
@@ -16611,7 +16614,7 @@
       <c r="C170" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="87"/>
       <c r="E170" s="42" t="s">
         <v>1222</v>
       </c>
@@ -16640,7 +16643,7 @@
       <c r="C171" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="84"/>
+      <c r="D171" s="88"/>
       <c r="E171" s="42" t="s">
         <v>1224</v>
       </c>
@@ -16661,17 +16664,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="F4:F38"/>
-    <mergeCell ref="D4:D47"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D60:D68"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C69:K69"/>
     <mergeCell ref="D163:D171"/>
     <mergeCell ref="D80:D88"/>
     <mergeCell ref="D90:D111"/>
@@ -16683,6 +16675,17 @@
     <mergeCell ref="C146:K146"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C89:K89"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C69:K69"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="F4:F38"/>
+    <mergeCell ref="D4:D47"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="D70:D78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="Требования!R11C1" display="T-4"/>
@@ -16855,7 +16858,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19236,7 +19239,7 @@
     </row>
     <row r="86" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>1371</v>
